--- a/Localisation/Novo_Dados.xlsx
+++ b/Localisation/Novo_Dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Faculdade\IC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF472B4-C724-40F9-A5A1-940116522CA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B72A22-F59D-4C2A-AD8F-85B9892AF3F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,7 +195,7 @@
     <numFmt numFmtId="164" formatCode="0.000000000"/>
     <numFmt numFmtId="165" formatCode="0.00000E+00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +214,14 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -251,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -266,13 +274,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -304,17 +313,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15468457504264482"/>
-          <c:y val="7.6354257801108188E-2"/>
-          <c:w val="0.73631480422489082"/>
-          <c:h val="0.83704505686789155"/>
+          <c:x val="0.1424909731587419"/>
+          <c:y val="4.7226295730232737E-2"/>
+          <c:w val="0.73038476573407052"/>
+          <c:h val="0.75319495973544437"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -650,6 +659,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -734,7 +744,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00000E+00" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -769,6 +839,45 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -873,10 +982,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.899759405074366E-2"/>
-          <c:y val="7.407407407407407E-2"/>
-          <c:w val="0.89655796150481193"/>
-          <c:h val="0.8416746864975212"/>
+          <c:x val="0.12457474394648037"/>
+          <c:y val="5.1326758747609724E-2"/>
+          <c:w val="0.84301083417204425"/>
+          <c:h val="0.73213904877382496"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1296,6 +1405,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1331,6 +1500,45 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1445,10 +1653,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10248869789349371"/>
-          <c:y val="5.4110778529633557E-2"/>
-          <c:w val="0.84368025684629711"/>
-          <c:h val="0.84876385330806214"/>
+          <c:x val="0.13099752033758214"/>
+          <c:y val="6.4037325135204382E-2"/>
+          <c:w val="0.82710561041748232"/>
+          <c:h val="0.76636435127706315"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1868,7 +2076,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1903,6 +2171,45 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3527,16 +3834,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3564,15 +3871,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3600,15 +3907,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25929,7 +26236,7 @@
   <dimension ref="A2:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25943,12 +26250,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -26116,11 +26423,11 @@
     </row>
     <row r="24" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -26167,7 +26474,7 @@
         <v>0.22343603185346661</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -26184,7 +26491,7 @@
         <v>0.20503592900489928</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -26201,7 +26508,7 @@
         <v>0.24103326571641648</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -26218,7 +26525,7 @@
         <v>0.12264247031188587</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -26235,7 +26542,7 @@
         <v>0.11047697306852397</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -26252,7 +26559,7 @@
         <v>0.19866534743450648</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -26269,7 +26576,7 @@
         <v>0.12263635907193464</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -26286,13 +26593,16 @@
         <v>0.10238011451927255</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="13"/>
+    </row>
+    <row r="48" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
